--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1108855.350958976</v>
+        <v>1106419.71403527</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673445</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224.2131267027227</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>219.7549177952605</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -832,7 +832,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>20.84901245549815</v>
+        <v>131.6653792309046</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>184.4241132557156</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>96.32693285396928</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>192.1675620474802</v>
       </c>
       <c r="U7" t="n">
-        <v>71.43351558306429</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>209.7083496784902</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>109.6870817625077</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347168</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.6077720323805</v>
+        <v>22.60777203238021</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114115</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>177.3737035358602</v>
+        <v>149.3610614362538</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458127</v>
+        <v>87.05432226458124</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035337</v>
+        <v>9.753166794035195</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>48.6698479352599</v>
+        <v>56.67473094584668</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146351</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>185.9226570076761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
         <v>286.1997994941144</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754645</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>200.6173698503563</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>2.119387955706286</v>
       </c>
       <c r="G16" t="n">
-        <v>111.3598553131476</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>57.24347904696321</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673025</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>26.13627195705875</v>
       </c>
       <c r="U22" t="n">
-        <v>281.6778446725307</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>162.7401913819114</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>59.66990246485226</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>115.7063133373728</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,13 +2959,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,13 +3004,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>247.2924896597638</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>99.76859704213612</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>56.04917322725592</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969019</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>107.4021082756242</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3673,7 +3673,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>55.52079624060451</v>
       </c>
       <c r="T40" t="n">
-        <v>107.4021082756241</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>69.82863813027228</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3910,7 +3910,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>55.52079624060451</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>41.74133133758728</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428223</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>2198.17958617321</v>
       </c>
       <c r="C2" t="n">
         <v>1976.204921733553</v>
@@ -4325,13 +4325,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,16 +4340,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4361,19 +4361,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W2" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X2" t="n">
-        <v>2961.784676410103</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y2" t="n">
-        <v>2571.645344434291</v>
+        <v>2198.17958617321</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>994.2880032601528</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396067</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1624.71859813194</v>
+        <v>1794.299215532023</v>
       </c>
       <c r="U4" t="n">
-        <v>1624.71859813194</v>
+        <v>1505.196348657667</v>
       </c>
       <c r="V4" t="n">
-        <v>1624.71859813194</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="W4" t="n">
-        <v>1624.71859813194</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="X4" t="n">
-        <v>1396.729047233923</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>1175.936468090393</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1343.379050624727</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>985.1133520179767</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>599.3250994197324</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>592.3795986705289</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4598,19 +4598,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3118.015220960539</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2786.952333616968</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2434.183678346854</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X5" t="n">
-        <v>2434.183678346854</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4620,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>648.3899067494191</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>479.4537238215122</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>479.4537238215122</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>331.5406302391191</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="U7" t="n">
-        <v>1351.856524996854</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V7" t="n">
-        <v>1097.172036790967</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W7" t="n">
-        <v>1097.172036790967</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>869.1824858929492</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>648.3899067494191</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1844.338003964587</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1475.375487024176</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1117.109788417425</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>731.321535819181</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>320.3356310295734</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3104.520121052924</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>2621.077176004521</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>2230.937844028709</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4951,25 +4951,25 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,19 +4981,19 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
         <v>1767.918581386758</v>
@@ -5030,52 +5030,52 @@
         <v>515.9226452610856</v>
       </c>
       <c r="G11" t="n">
-        <v>101.3471995907326</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907326</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.5110662246917</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386824</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.515510442031</v>
+        <v>704.5155104420323</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301223</v>
+        <v>1232.419981301225</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878107</v>
+        <v>1851.484858878111</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765422</v>
+        <v>2485.180661765427</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687097</v>
+        <v>3070.226377687103</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856277</v>
+        <v>3535.048359856285</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882235</v>
+        <v>3835.937563882244</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234585</v>
+        <v>3925.553311234594</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455654</v>
+        <v>3925.553311234594</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971434</v>
+        <v>3925.553311234594</v>
       </c>
       <c r="U11" t="n">
-        <v>3369.295305604042</v>
+        <v>3672.062594867203</v>
       </c>
       <c r="V11" t="n">
-        <v>3369.295305604042</v>
+        <v>3340.999707523632</v>
       </c>
       <c r="W11" t="n">
         <v>3190.129948497113</v>
@@ -5112,31 +5112,31 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503043</v>
+        <v>88.36274985503047</v>
       </c>
       <c r="I12" t="n">
-        <v>78.5110662246917</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="J12" t="n">
-        <v>78.5110662246917</v>
+        <v>196.812062379213</v>
       </c>
       <c r="K12" t="n">
-        <v>78.5110662246917</v>
+        <v>477.1621322376506</v>
       </c>
       <c r="L12" t="n">
-        <v>501.7988736520007</v>
+        <v>900.4499396649603</v>
       </c>
       <c r="M12" t="n">
-        <v>1015.112647895889</v>
+        <v>1413.76371390885</v>
       </c>
       <c r="N12" t="n">
-        <v>1556.420955246956</v>
+        <v>1955.072021259917</v>
       </c>
       <c r="O12" t="n">
-        <v>2029.392508112704</v>
+        <v>2428.043574125666</v>
       </c>
       <c r="P12" t="n">
-        <v>2389.660810952858</v>
+        <v>2558.889669173201</v>
       </c>
       <c r="Q12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>424.6791156958064</v>
+        <v>283.6713627826876</v>
       </c>
       <c r="C13" t="n">
-        <v>375.5176531349377</v>
+        <v>226.424159807085</v>
       </c>
       <c r="D13" t="n">
-        <v>225.401013722602</v>
+        <v>226.424159807085</v>
       </c>
       <c r="E13" t="n">
-        <v>225.401013722602</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="F13" t="n">
-        <v>78.5110662246917</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="G13" t="n">
-        <v>78.5110662246917</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="H13" t="n">
-        <v>78.5110662246917</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="I13" t="n">
-        <v>78.5110662246917</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600397</v>
+        <v>139.0818334600401</v>
       </c>
       <c r="K13" t="n">
-        <v>368.45504734577</v>
+        <v>368.4550473457705</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888912</v>
+        <v>717.5002252888919</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.90854877922</v>
+        <v>1095.908548779221</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542993</v>
+        <v>1470.753784542994</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715847</v>
+        <v>1800.967734715849</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082519</v>
+        <v>2060.002133082522</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551103</v>
+        <v>2155.909043551105</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.10273901427</v>
+        <v>2155.909043551105</v>
       </c>
       <c r="S13" t="n">
-        <v>1888.302075370153</v>
+        <v>1968.108379906988</v>
       </c>
       <c r="T13" t="n">
-        <v>1888.302075370153</v>
+        <v>1747.294322457034</v>
       </c>
       <c r="U13" t="n">
-        <v>1599.211368810441</v>
+        <v>1458.203615897322</v>
       </c>
       <c r="V13" t="n">
-        <v>1344.526880604554</v>
+        <v>1203.519127691435</v>
       </c>
       <c r="W13" t="n">
-        <v>1055.109710567594</v>
+        <v>914.1019576544747</v>
       </c>
       <c r="X13" t="n">
-        <v>827.1201596695762</v>
+        <v>686.1124067564574</v>
       </c>
       <c r="Y13" t="n">
-        <v>606.3275805260461</v>
+        <v>465.3198276129273</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555042</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965431</v>
+        <v>1897.462430614631</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358681</v>
+        <v>1539.196732007881</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.408479409637</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2220959708296</v>
+        <v>742.4225746200289</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251932</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128765</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018652</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127286</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304024</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070876</v>
+        <v>4555.113898070873</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750194</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820541</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.19805447697</v>
+        <v>3769.39853312617</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206856</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945776</v>
+        <v>3043.164119594976</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969964</v>
+        <v>2653.024787619164</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608053</v>
+        <v>240.4596049779263</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608053</v>
+        <v>570.9683475412851</v>
       </c>
       <c r="L15" t="n">
-        <v>583.5439560698318</v>
+        <v>570.9683475412851</v>
       </c>
       <c r="M15" t="n">
-        <v>1175.562310321959</v>
+        <v>1162.986701793413</v>
       </c>
       <c r="N15" t="n">
-        <v>1797.658273721295</v>
+        <v>1785.082665192749</v>
       </c>
       <c r="O15" t="n">
-        <v>2344.534748721489</v>
+        <v>2331.959140192943</v>
       </c>
       <c r="P15" t="n">
-        <v>2344.534748721489</v>
+        <v>2331.959140192943</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>494.0589900220733</v>
+        <v>561.918335063571</v>
       </c>
       <c r="C16" t="n">
-        <v>494.0589900220732</v>
+        <v>392.9821521356641</v>
       </c>
       <c r="D16" t="n">
-        <v>494.0589900220732</v>
+        <v>242.8655127233283</v>
       </c>
       <c r="E16" t="n">
-        <v>494.0589900220732</v>
+        <v>94.95241914093526</v>
       </c>
       <c r="F16" t="n">
-        <v>347.1690425241629</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876502</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156339</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861974</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693323</v>
+        <v>819.1842911693316</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213791</v>
@@ -5449,37 +5449,37 @@
         <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020528</v>
+        <v>2020.132206020527</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368669</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.346239107599</v>
+        <v>2245.205584149097</v>
       </c>
       <c r="T16" t="n">
-        <v>1957.667456821981</v>
+        <v>2025.526801863479</v>
       </c>
       <c r="U16" t="n">
-        <v>1668.591243136708</v>
+        <v>1736.450588178206</v>
       </c>
       <c r="V16" t="n">
-        <v>1413.906754930821</v>
+        <v>1481.766099972319</v>
       </c>
       <c r="W16" t="n">
-        <v>1124.48958489386</v>
+        <v>1192.348929935358</v>
       </c>
       <c r="X16" t="n">
-        <v>896.5000339958431</v>
+        <v>964.3593790373409</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.7074548523129</v>
+        <v>743.5667998938108</v>
       </c>
     </row>
     <row r="17">
@@ -5507,22 +5507,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5531,31 +5531,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.793114229131</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468418</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327645</v>
+        <v>571.6607764188002</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257313</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133955</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310024</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="F19" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797745</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1202.091371290587</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925701</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630042</v>
+        <v>753.3092412490399</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>956.9553291057239</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>788.019146177817</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>637.9025067654811</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830881</v>
       </c>
       <c r="F22" t="n">
-        <v>261.012762333092</v>
+        <v>343.0994656851781</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038391</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797792</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910814</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853366</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.10824923517</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258111</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U22" t="n">
-        <v>1759.983708831312</v>
+        <v>2131.487582220358</v>
       </c>
       <c r="V22" t="n">
-        <v>1505.299220625425</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1587.385923977511</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>1138.603793935963</v>
       </c>
     </row>
     <row r="23">
@@ -5966,34 +5966,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6002,34 +6002,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>705.9324428257312</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>261.012762333092</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235167</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258108</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602306</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396419</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1336.363037697518</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X25" t="n">
-        <v>1108.373486799501</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y25" t="n">
-        <v>887.5809076559709</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="26">
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270444</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="29">
@@ -6455,34 +6455,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133953</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6622,49 +6622,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1332.925005000197</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6692,28 +6692,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>705.9324428257312</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6883,25 +6883,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6923,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536376</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257307</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133949</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310019</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330918</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7114,31 +7114,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868272</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662385</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727407</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583877</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,31 +7163,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075793</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>707.6725264685176</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>538.7363435406107</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133953</v>
+        <v>388.6197041282751</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458821</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2390.881471216013</v>
       </c>
       <c r="T40" t="n">
-        <v>2338.476105524075</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868273</v>
+        <v>1882.204779583152</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1627.520291377265</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>1110.113570442287</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>889.3209912987573</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>707.6725264685176</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>538.7363435406107</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282751</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458821</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1882.204779583152</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1627.520291377265</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>1110.113570442287</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.4026036630038</v>
+        <v>889.3209912987573</v>
       </c>
     </row>
     <row r="44">
@@ -7637,34 +7637,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406112</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,7 +7807,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797745</v>
@@ -7819,7 +7819,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>289.5687166806772</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114098</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>171.8672651815528</v>
+        <v>199.8799072811592</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>118.5769731633679</v>
+        <v>110.5720901527812</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400679</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034046</v>
+        <v>89.71507747034036</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146337</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613729315</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>50.29152613729005</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>143.301660067225</v>
       </c>
       <c r="G16" t="n">
-        <v>54.18219756401928</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0033420516646</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>57.22910392194169</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>191.2691783702295</v>
       </c>
       <c r="U22" t="n">
-        <v>4.506629716713462</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>123.7828069546796</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>166.0397529241849</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,13 +24892,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>4.845153664064156</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>123.7828069546814</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>72.11969353038636</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25202,7 +25202,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219421</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>73.62417772602038</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25561,7 +25561,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25597,10 +25597,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610401</v>
       </c>
       <c r="T40" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25798,7 +25798,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25834,7 +25834,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610401</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194171</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>879459.6522137567</v>
+        <v>879459.6522137577</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>956567.4989049576</v>
+        <v>956567.4989049573</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>961816.0218660285</v>
+        <v>961816.0218660283</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>961816.0218660284</v>
+        <v>961816.0218660283</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>961816.0218660283</v>
+        <v>961816.0218660282</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>961816.0218660283</v>
+        <v>961816.0218660282</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>961816.0218660283</v>
+        <v>961816.0218660282</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>961816.0218660283</v>
+        <v>961816.0218660282</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>961816.0218660283</v>
+        <v>961816.0218660282</v>
       </c>
     </row>
     <row r="16">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719633</v>
       </c>
       <c r="C2" t="n">
         <v>472099.0176719632</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719633</v>
       </c>
       <c r="E2" t="n">
-        <v>423807.2415876631</v>
+        <v>423807.2415876635</v>
       </c>
       <c r="F2" t="n">
-        <v>461540.8686918678</v>
+        <v>461540.8686918676</v>
       </c>
       <c r="G2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="H2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="I2" t="n">
         <v>464109.2948217537</v>
@@ -26341,19 +26341,19 @@
         <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="M2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="N2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="O2" t="n">
         <v>464109.2948217536</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>464109.2948217537</v>
-      </c>
-      <c r="P2" t="n">
-        <v>464109.2948217536</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185144</v>
+        <v>143114.1392185163</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051394</v>
+        <v>166521.347105137</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557928</v>
+        <v>11167.23623557934</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115293</v>
+        <v>37377.32855115341</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848951</v>
+        <v>43782.40655848887</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224748</v>
+        <v>3023.297977224802</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820629</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820629</v>
       </c>
       <c r="E4" t="n">
         <v>14117.63111954901</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214697</v>
+        <v>86093.72216214715</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26525,43 +26525,43 @@
         <v>270761.2902623636</v>
       </c>
       <c r="D6" t="n">
-        <v>270761.2902623636</v>
+        <v>270761.2902623637</v>
       </c>
       <c r="E6" t="n">
-        <v>180481.7490874528</v>
+        <v>180271.7848436062</v>
       </c>
       <c r="F6" t="n">
-        <v>180667.1736172603</v>
+        <v>180621.2686216969</v>
       </c>
       <c r="G6" t="n">
-        <v>337602.7766854122</v>
+        <v>337568.0387599765</v>
       </c>
       <c r="H6" t="n">
-        <v>348770.0129209915</v>
+        <v>348735.2749955558</v>
       </c>
       <c r="I6" t="n">
-        <v>348770.0129209915</v>
+        <v>348735.2749955559</v>
       </c>
       <c r="J6" t="n">
-        <v>131238.8105237141</v>
+        <v>131204.0725982782</v>
       </c>
       <c r="K6" t="n">
-        <v>348770.0129209916</v>
+        <v>348735.2749955559</v>
       </c>
       <c r="L6" t="n">
-        <v>348770.0129209918</v>
+        <v>348735.2749955557</v>
       </c>
       <c r="M6" t="n">
-        <v>311392.6843698384</v>
+        <v>311357.9464444024</v>
       </c>
       <c r="N6" t="n">
-        <v>304987.606362502</v>
+        <v>304952.868437067</v>
       </c>
       <c r="O6" t="n">
-        <v>345746.7149437668</v>
+        <v>345711.9770183309</v>
       </c>
       <c r="P6" t="n">
-        <v>348770.0129209915</v>
+        <v>348735.2749955556</v>
       </c>
     </row>
   </sheetData>
@@ -26744,10 +26744,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494555</v>
+        <v>1212.170267494556</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086462</v>
+        <v>981.3883278086486</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012565</v>
+        <v>122.3935669012581</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218311</v>
+        <v>145.870781221829</v>
       </c>
       <c r="G3" t="n">
         <v>9.934451625288375</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063535</v>
+        <v>149.9868724063557</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173603</v>
+        <v>178.7569625173575</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063535</v>
+        <v>149.9868724063555</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173603</v>
+        <v>178.7569625173577</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063535</v>
+        <v>149.9868724063557</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173603</v>
+        <v>178.7569625173575</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>158.5207149607579</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>145.5179739757471</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>198.699936820671</v>
+        <v>87.88357004526461</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>226.4976123977378</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>154.6682391049327</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>27.38138722868902</v>
       </c>
       <c r="U7" t="n">
-        <v>214.7783226225486</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>201.2133759749633</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>218.0651767076272</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28068,7 +28068,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>94.35543628911122</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.319681382597654e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28983,7 +28983,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>4.376943252282218e-12</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29226,7 +29226,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485643</v>
+        <v>4.87304630148565</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508985</v>
+        <v>49.90608543508993</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380254</v>
+        <v>187.8681175380257</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307174</v>
+        <v>413.593713530718</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726049</v>
+        <v>619.8697634726058</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216962</v>
+        <v>769.0032542216974</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857414</v>
+        <v>855.6642913857428</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898376</v>
+        <v>869.5098341898389</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294397</v>
+        <v>821.0534800294409</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615128</v>
+        <v>700.7501494615138</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895581</v>
+        <v>526.2341787895589</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356978</v>
+        <v>306.1064947356982</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951042</v>
+        <v>111.0445425951044</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475341</v>
+        <v>21.33176018475345</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188513</v>
+        <v>0.3898437041188519</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969419</v>
+        <v>2.607309631969423</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191519</v>
+        <v>25.18112197191522</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596466</v>
+        <v>89.7692132059648</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783042</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>421.0233277202555</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256409</v>
+        <v>566.1178216256417</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845322</v>
+        <v>660.6327957845331</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147131</v>
+        <v>678.1177801147142</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431802</v>
+        <v>620.3452877431811</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205464</v>
+        <v>266.1421801896178</v>
       </c>
       <c r="Q12" t="n">
-        <v>310.9200147126304</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.4296328569758</v>
+        <v>48.42963285697588</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780656</v>
+        <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190408</v>
+        <v>0.1715335284190411</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236082</v>
+        <v>2.185880810236085</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737172</v>
+        <v>19.43446756737175</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691782</v>
+        <v>65.73539745691792</v>
       </c>
       <c r="J13" t="n">
-        <v>154.541773283691</v>
+        <v>154.5417732836912</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619738</v>
+        <v>253.9596068619742</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509172</v>
+        <v>324.9808615509176</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263705</v>
+        <v>342.646752826371</v>
       </c>
       <c r="N13" t="n">
-        <v>334.499378897309</v>
+        <v>334.4993788973095</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050056</v>
+        <v>308.964316705006</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761893</v>
+        <v>264.3723481761897</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916777</v>
+        <v>183.037710391678</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570598</v>
+        <v>98.28514988570612</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929607</v>
+        <v>38.09394102929613</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826892</v>
+        <v>9.339672552826906</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765137</v>
+        <v>0.1192298623765139</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -31999,25 +31999,25 @@
         <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086952</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R14" t="n">
         <v>342.9428985987162</v>
@@ -32029,7 +32029,7 @@
         <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H15" t="n">
         <v>28.2113810308819</v>
@@ -32075,34 +32075,34 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745724</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504301</v>
+        <v>740.13237155043</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927636</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426203</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>350.3260983776887</v>
+        <v>363.0287332550084</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T15" t="n">
         <v>11.77395965821092</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L16" t="n">
         <v>364.0885788640618</v>
@@ -32166,13 +32166,13 @@
         <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O16" t="n">
         <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,25 +33977,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040311</v>
+        <v>232.5478090040318</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276243</v>
+        <v>399.7799124276252</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517089</v>
+        <v>533.2368392517101</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584687</v>
+        <v>625.3180581584701</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932467</v>
+        <v>640.096770593248</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077529</v>
+        <v>590.9552686077542</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062433</v>
+        <v>469.5171537062443</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151086</v>
+        <v>303.9284889151094</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156564</v>
+        <v>90.5209569215661</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116375</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>283.1818887458965</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457667</v>
+        <v>427.5634418457675</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625139</v>
+        <v>518.4987618625148</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313799</v>
+        <v>546.7760680313809</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987357</v>
+        <v>477.7490432987366</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062162</v>
+        <v>132.1677727752875</v>
       </c>
       <c r="Q12" t="n">
-        <v>170.9382406266089</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701818</v>
+        <v>61.18259316701844</v>
       </c>
       <c r="K13" t="n">
-        <v>231.690115036091</v>
+        <v>231.6901150360913</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112333</v>
+        <v>352.5708868112338</v>
       </c>
       <c r="M13" t="n">
-        <v>382.230629788211</v>
+        <v>382.2306297882116</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765376</v>
+        <v>378.6315512765381</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190452</v>
+        <v>333.5494446190457</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410828</v>
+        <v>261.6509074410832</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998335</v>
+        <v>96.87566713998361</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L14" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M14" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404111</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946982</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094304</v>
       </c>
       <c r="O15" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981759</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.3443242916671</v>
+        <v>223.0469591689869</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M16" t="n">
         <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O16" t="n">
         <v>370.7297545606359</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096394</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010465</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,16 +36914,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,16 +38099,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
